--- a/twin4build/test/data/configuration_template_1space_1v_1h_0c_with_simple_naming.xlsx
+++ b/twin4build/test/data/configuration_template_1space_1v_1h_0c_with_simple_naming.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://syddanskuni-my.sharepoint.com/personal/jabj_mmmi_sdu_dk/Documents/PhD_Project_Jakob/Twin4build/python/BuildingEnergyModel/BuildingEnergyModel/twin4build/test/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="8_{AAA6B40C-6A0C-4905-8430-5C49F148860B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92EFB6EE-E103-476F-95BB-268D07FBBB66}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="8_{AAA6B40C-6A0C-4905-8430-5C49F148860B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1AB324C2-E480-45B9-9BAD-4B5D3A807C4C}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-105" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{0A98B5A4-E8E7-4876-BAF5-D3C6F6E2C062}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{0A98B5A4-E8E7-4876-BAF5-D3C6F6E2C062}"/>
   </bookViews>
   <sheets>
     <sheet name="Systems" sheetId="3" r:id="rId1"/>
@@ -12169,7 +12169,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{070312A3-2F1C-41E0-AB34-E38166B9C92A}">
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -27591,8 +27591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13A142E3-535E-45D7-B544-7DE9118FD57D}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27649,12 +27649,12 @@
         <v>4</v>
       </c>
       <c r="G2">
-        <f>25000/3600*1.225</f>
-        <v>8.5069444444444446</v>
+        <f>5000/3600*1.225</f>
+        <v>1.7013888888888891</v>
       </c>
       <c r="I2">
-        <f>25000/3600*1.225</f>
-        <v>8.5069444444444446</v>
+        <f>5000/3600*1.225</f>
+        <v>1.7013888888888891</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -33644,7 +33644,7 @@
   <dimension ref="A1:M1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33716,11 +33716,11 @@
         <v>65</v>
       </c>
       <c r="F2">
-        <f>25000/3600*1.225</f>
-        <v>8.5069444444444446</v>
+        <f>5000/3600*1.225</f>
+        <v>1.7013888888888891</v>
       </c>
       <c r="G2">
-        <v>10000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -33734,11 +33734,11 @@
         <v>66</v>
       </c>
       <c r="F3">
-        <f>25000/3600*1.225</f>
-        <v>8.5069444444444446</v>
+        <f>5000/3600*1.225</f>
+        <v>1.7013888888888891</v>
       </c>
       <c r="G3">
-        <v>10000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">

--- a/twin4build/test/data/configuration_template_1space_1v_1h_0c_with_simple_naming.xlsx
+++ b/twin4build/test/data/configuration_template_1space_1v_1h_0c_with_simple_naming.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="47" documentId="8_{AAA6B40C-6A0C-4905-8430-5C49F148860B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1AB324C2-E480-45B9-9BAD-4B5D3A807C4C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{0A98B5A4-E8E7-4876-BAF5-D3C6F6E2C062}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="8" xr2:uid="{0A98B5A4-E8E7-4876-BAF5-D3C6F6E2C062}"/>
   </bookViews>
   <sheets>
     <sheet name="Systems" sheetId="3" r:id="rId1"/>
@@ -811,7 +811,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27591,8 +27591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13A142E3-535E-45D7-B544-7DE9118FD57D}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39705,8 +39705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1EEF019-D7A4-42FF-B5C0-3702855A99F7}">
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/twin4build/test/data/configuration_template_1space_1v_1h_0c_with_simple_naming.xlsx
+++ b/twin4build/test/data/configuration_template_1space_1v_1h_0c_with_simple_naming.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="47" documentId="8_{AAA6B40C-6A0C-4905-8430-5C49F148860B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1AB324C2-E480-45B9-9BAD-4B5D3A807C4C}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="8" xr2:uid="{0A98B5A4-E8E7-4876-BAF5-D3C6F6E2C062}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="9" xr2:uid="{0A98B5A4-E8E7-4876-BAF5-D3C6F6E2C062}"/>
   </bookViews>
   <sheets>
     <sheet name="Systems" sheetId="3" r:id="rId1"/>
@@ -810,8 +810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D904F809-0565-4493-A542-77B590BDC86C}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6133,7 +6133,7 @@
   <dimension ref="A1:N1000"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12170,7 +12170,7 @@
   <dimension ref="A1:K1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39705,7 +39705,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1EEF019-D7A4-42FF-B5C0-3702855A99F7}">
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
